--- a/default/data/NCASH.xlsx
+++ b/default/data/NCASH.xlsx
@@ -53,7 +53,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -430,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,21 +506,21 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44791</v>
+        <v>44803</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BAJAJELEC</t>
+          <t>NYKAA</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1228.55</v>
+        <v>1388.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1221.4</v>
+        <v>1351.92</v>
       </c>
       <c r="G2" t="n">
-        <v>1253.12</v>
+        <v>1416.07</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -550,21 +549,21 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44785</v>
+        <v>44802</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BAJAJELEC</t>
+          <t>KALPATPOWR</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1175</v>
+        <v>405</v>
       </c>
       <c r="F3" t="n">
-        <v>1144.28</v>
+        <v>394.38</v>
       </c>
       <c r="G3" t="n">
-        <v>1221.4</v>
+        <v>413.1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -572,10 +571,10 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1221.4</v>
+        <v>413.1</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -595,36 +594,36 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44785</v>
+        <v>44802</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PRESTIGE</t>
+          <t>PRAJIND</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>470.9</v>
+        <v>415.75</v>
       </c>
       <c r="F4" t="n">
-        <v>467.4</v>
+        <v>386.03</v>
       </c>
       <c r="G4" t="n">
-        <v>489.74</v>
+        <v>424.06</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>SL Hit</t>
+          <t>T1 Hit</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>454.5</v>
+        <v>424.06</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>SL Hit</t>
+          <t>Target achieved</t>
         </is>
       </c>
     </row>
@@ -640,36 +639,34 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44784</v>
+        <v>44799</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AFFLE</t>
+          <t>INDIANB</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1156.85</v>
+        <v>192.2</v>
       </c>
       <c r="F5" t="n">
-        <v>1152.47</v>
+        <v>190.12</v>
       </c>
       <c r="G5" t="n">
-        <v>1179.99</v>
+        <v>196.04</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>T1 Hit</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1179.99</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Target achieved</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -685,36 +682,36 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44783</v>
+        <v>44791</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MHRIL</t>
+          <t>BAJAJELEC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>257.35</v>
+        <v>1228.55</v>
       </c>
       <c r="F6" t="n">
-        <v>254.63</v>
+        <v>1221.4</v>
       </c>
       <c r="G6" t="n">
-        <v>262.5</v>
+        <v>1253.12</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>SL Hit</t>
+          <t>T1 Hit</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>254.63</v>
+        <v>1253.12</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>SL Hit</t>
+          <t>Target achieved</t>
         </is>
       </c>
     </row>
@@ -730,21 +727,21 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44781</v>
+        <v>44785</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HFCL</t>
+          <t>BAJAJELEC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>71.90000000000001</v>
+        <v>1175</v>
       </c>
       <c r="F7" t="n">
-        <v>67.17</v>
+        <v>1144.28</v>
       </c>
       <c r="G7" t="n">
-        <v>73.34</v>
+        <v>1221.4</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -752,10 +749,10 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>73.34</v>
+        <v>1221.4</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -775,34 +772,36 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44778</v>
+        <v>44785</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>KEI</t>
+          <t>PRESTIGE</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1426.9</v>
+        <v>470.9</v>
       </c>
       <c r="F8" t="n">
-        <v>1336.27</v>
+        <v>467.4</v>
       </c>
       <c r="G8" t="n">
-        <v>1452.72</v>
+        <v>489.74</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>SL Hit</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>454.5</v>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>SL Hit</t>
         </is>
       </c>
     </row>
@@ -818,21 +817,21 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44775</v>
+        <v>44784</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PHOENIXLTD</t>
+          <t>AFFLE</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1270</v>
+        <v>1156.85</v>
       </c>
       <c r="F9" t="n">
-        <v>1230.49</v>
+        <v>1152.47</v>
       </c>
       <c r="G9" t="n">
-        <v>1295.4</v>
+        <v>1179.99</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -843,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1295.4</v>
+        <v>1179.99</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -863,34 +862,214 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44774</v>
+        <v>44783</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>GMMPFAUDLR</t>
+          <t>MHRIL</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1619.25</v>
+        <v>257.35</v>
       </c>
       <c r="F10" t="n">
-        <v>1513</v>
+        <v>254.63</v>
       </c>
       <c r="G10" t="n">
-        <v>1684.02</v>
+        <v>262.5</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>T1 Hit</t>
+          <t>SL Hit</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>254.63</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>SL Hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Cash_N500</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>44781</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>HFCL</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>67.17</v>
+      </c>
+      <c r="G11" t="n">
+        <v>73.34</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Expired-T1 Hit</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>73.34</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Target achieved</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Cash_N500</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>44778</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>KEI</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1426.9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1336.27</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1452.72</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Expired-T1 Hit</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>21</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1452.72</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Target achieved</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Cash_N500</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>PHOENIXLTD</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1270</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1230.49</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1295.4</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Expired-T1 Hit</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1295.4</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Target achieved</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Cash_N500</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>GMMPFAUDLR</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1619.25</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1513</v>
+      </c>
+      <c r="G14" t="n">
         <v>1684.02</v>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Expired-T1 Hit</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>23</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1684.02</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>Target achieved</t>
         </is>
